--- a/test_files/Ярославль.xlsx
+++ b/test_files/Ярославль.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\python\dan_excel\test_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My documents\Python\excelFusion\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -11062,10 +11062,10 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -11378,80 +11378,80 @@
   </sheetPr>
   <dimension ref="A1:DX53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="O5" workbookViewId="0">
+      <selection activeCell="AN15" sqref="AN15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="7" width="21" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" style="1" customWidth="1"/>
-    <col min="9" max="39" width="5.33203125" style="1" customWidth="1"/>
-    <col min="40" max="47" width="10.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" style="1" customWidth="1"/>
+    <col min="9" max="39" width="5.28515625" style="1" customWidth="1"/>
+    <col min="40" max="47" width="10.42578125" style="1" customWidth="1"/>
     <col min="48" max="48" width="21" style="1" customWidth="1"/>
-    <col min="49" max="49" width="1.6640625" style="1" customWidth="1"/>
-    <col min="50" max="77" width="5.33203125" style="1" customWidth="1"/>
-    <col min="78" max="85" width="10.5" style="1" customWidth="1"/>
+    <col min="49" max="49" width="1.7109375" style="1" customWidth="1"/>
+    <col min="50" max="77" width="5.28515625" style="1" customWidth="1"/>
+    <col min="78" max="85" width="10.42578125" style="1" customWidth="1"/>
     <col min="86" max="86" width="21" style="1" customWidth="1"/>
-    <col min="87" max="87" width="1.6640625" style="1" customWidth="1"/>
-    <col min="88" max="118" width="5.33203125" style="1" customWidth="1"/>
-    <col min="119" max="126" width="10.5" style="1" customWidth="1"/>
+    <col min="87" max="87" width="1.7109375" style="1" customWidth="1"/>
+    <col min="88" max="118" width="5.28515625" style="1" customWidth="1"/>
+    <col min="119" max="126" width="10.42578125" style="1" customWidth="1"/>
     <col min="127" max="127" width="21" style="1" customWidth="1"/>
-    <col min="128" max="128" width="1.6640625" style="1" customWidth="1"/>
+    <col min="128" max="128" width="1.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:127" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:127" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:127" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:127" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="23"/>
     </row>
-    <row r="5" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="23"/>
     </row>
-    <row r="6" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="23"/>
     </row>
-    <row r="7" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="23"/>
     </row>
-    <row r="8" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
     </row>
-    <row r="9" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:127" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:127" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:127" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>115</v>
       </c>
@@ -11872,7 +11872,10 @@
       <c r="AK15" s="11"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="12"/>
-      <c r="AN15" s="13"/>
+      <c r="AN15" s="13">
+        <f>COUNTIF(RC9,15)+COUNTIF(RC12:RC16,15)+COUNTIF(RC19:RC23,15)+COUNTIF(RC26:RC30,15)</f>
+        <v>0</v>
+      </c>
       <c r="AO15" s="13"/>
       <c r="AP15" s="13"/>
       <c r="AQ15" s="13"/>
@@ -11959,7 +11962,7 @@
       <c r="DV15" s="13"/>
       <c r="DW15" s="13"/>
     </row>
-    <row r="16" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>116</v>
       </c>
@@ -12087,7 +12090,7 @@
       <c r="DV16" s="13"/>
       <c r="DW16" s="13"/>
     </row>
-    <row r="17" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>117</v>
       </c>
@@ -12215,7 +12218,7 @@
       <c r="DV17" s="13"/>
       <c r="DW17" s="13"/>
     </row>
-    <row r="18" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>118</v>
       </c>
@@ -12343,7 +12346,7 @@
       <c r="DV18" s="13"/>
       <c r="DW18" s="13"/>
     </row>
-    <row r="19" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>119</v>
       </c>
@@ -12471,7 +12474,7 @@
       <c r="DV19" s="13"/>
       <c r="DW19" s="13"/>
     </row>
-    <row r="20" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>120</v>
       </c>
@@ -12599,7 +12602,7 @@
       <c r="DV20" s="13"/>
       <c r="DW20" s="13"/>
     </row>
-    <row r="21" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>121</v>
       </c>
@@ -12727,7 +12730,7 @@
       <c r="DV21" s="13"/>
       <c r="DW21" s="13"/>
     </row>
-    <row r="22" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>122</v>
       </c>
@@ -12957,7 +12960,7 @@
       </c>
       <c r="DW22" s="13"/>
     </row>
-    <row r="23" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>132</v>
       </c>
@@ -13237,7 +13240,7 @@
       </c>
       <c r="DW23" s="13"/>
     </row>
-    <row r="24" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>139</v>
       </c>
@@ -13439,7 +13442,7 @@
       </c>
       <c r="DW24" s="13"/>
     </row>
-    <row r="25" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>144</v>
       </c>
@@ -13579,7 +13582,7 @@
       <c r="DV25" s="13"/>
       <c r="DW25" s="13"/>
     </row>
-    <row r="26" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>148</v>
       </c>
@@ -13719,7 +13722,7 @@
       <c r="DV26" s="13"/>
       <c r="DW26" s="13"/>
     </row>
-    <row r="27" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>149</v>
       </c>
@@ -13859,7 +13862,7 @@
       <c r="DV27" s="13"/>
       <c r="DW27" s="13"/>
     </row>
-    <row r="28" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>150</v>
       </c>
@@ -13999,7 +14002,7 @@
       <c r="DV28" s="13"/>
       <c r="DW28" s="13"/>
     </row>
-    <row r="29" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>151</v>
       </c>
@@ -14139,7 +14142,7 @@
       <c r="DV29" s="13"/>
       <c r="DW29" s="13"/>
     </row>
-    <row r="30" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>152</v>
       </c>
@@ -14279,7 +14282,7 @@
       <c r="DV30" s="13"/>
       <c r="DW30" s="13"/>
     </row>
-    <row r="31" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>153</v>
       </c>
@@ -14509,7 +14512,7 @@
       </c>
       <c r="DW31" s="13"/>
     </row>
-    <row r="32" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>154</v>
       </c>
@@ -14789,7 +14792,7 @@
       </c>
       <c r="DW32" s="13"/>
     </row>
-    <row r="33" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>155</v>
       </c>
@@ -14991,7 +14994,7 @@
       </c>
       <c r="DW33" s="13"/>
     </row>
-    <row r="34" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>156</v>
       </c>
@@ -15131,7 +15134,7 @@
       <c r="DV34" s="13"/>
       <c r="DW34" s="13"/>
     </row>
-    <row r="35" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>157</v>
       </c>
@@ -15271,7 +15274,7 @@
       <c r="DV35" s="13"/>
       <c r="DW35" s="13"/>
     </row>
-    <row r="36" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>161</v>
       </c>
@@ -15411,7 +15414,7 @@
       <c r="DV36" s="13"/>
       <c r="DW36" s="13"/>
     </row>
-    <row r="37" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>162</v>
       </c>
@@ -15539,7 +15542,7 @@
       <c r="DV37" s="13"/>
       <c r="DW37" s="13"/>
     </row>
-    <row r="38" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>163</v>
       </c>
@@ -15667,7 +15670,7 @@
       <c r="DV38" s="13"/>
       <c r="DW38" s="13"/>
     </row>
-    <row r="39" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I39" s="10" t="s">
         <v>164</v>
       </c>
@@ -15887,8 +15890,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AN41" s="15"/>
       <c r="AO41" s="15"/>
       <c r="AP41" s="15"/>

--- a/test_files/Ярославль.xlsx
+++ b/test_files/Ярославль.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My documents\Python\excelFusion\test_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\python\dan_excel\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892" tabRatio="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -11379,70 +11379,70 @@
   <dimension ref="A1:DX53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O5" workbookViewId="0">
-      <selection activeCell="AN15" sqref="AN15"/>
+      <selection activeCell="AO15" sqref="AO15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="7" width="21" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" style="1" customWidth="1"/>
-    <col min="9" max="39" width="5.28515625" style="1" customWidth="1"/>
-    <col min="40" max="47" width="10.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" style="1" customWidth="1"/>
+    <col min="9" max="39" width="5.33203125" style="1" customWidth="1"/>
+    <col min="40" max="47" width="10.5" style="1" customWidth="1"/>
     <col min="48" max="48" width="21" style="1" customWidth="1"/>
-    <col min="49" max="49" width="1.7109375" style="1" customWidth="1"/>
-    <col min="50" max="77" width="5.28515625" style="1" customWidth="1"/>
-    <col min="78" max="85" width="10.42578125" style="1" customWidth="1"/>
+    <col min="49" max="49" width="1.6640625" style="1" customWidth="1"/>
+    <col min="50" max="77" width="5.33203125" style="1" customWidth="1"/>
+    <col min="78" max="85" width="10.5" style="1" customWidth="1"/>
     <col min="86" max="86" width="21" style="1" customWidth="1"/>
-    <col min="87" max="87" width="1.7109375" style="1" customWidth="1"/>
-    <col min="88" max="118" width="5.28515625" style="1" customWidth="1"/>
-    <col min="119" max="126" width="10.42578125" style="1" customWidth="1"/>
+    <col min="87" max="87" width="1.6640625" style="1" customWidth="1"/>
+    <col min="88" max="118" width="5.33203125" style="1" customWidth="1"/>
+    <col min="119" max="126" width="10.5" style="1" customWidth="1"/>
     <col min="127" max="127" width="21" style="1" customWidth="1"/>
-    <col min="128" max="128" width="1.7109375" style="1" customWidth="1"/>
+    <col min="128" max="128" width="1.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:127" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:127" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:127" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:127" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="23"/>
     </row>
-    <row r="5" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="23"/>
     </row>
-    <row r="6" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="23"/>
     </row>
-    <row r="7" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="23"/>
     </row>
-    <row r="8" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="23"/>
     </row>
-    <row r="9" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
@@ -11451,7 +11451,7 @@
     <row r="10" spans="1:127" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:127" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:127" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>115</v>
       </c>
@@ -11872,10 +11872,7 @@
       <c r="AK15" s="11"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="12"/>
-      <c r="AN15" s="13">
-        <f>COUNTIF(RC9,15)+COUNTIF(RC12:RC16,15)+COUNTIF(RC19:RC23,15)+COUNTIF(RC26:RC30,15)</f>
-        <v>0</v>
-      </c>
+      <c r="AN15" s="13"/>
       <c r="AO15" s="13"/>
       <c r="AP15" s="13"/>
       <c r="AQ15" s="13"/>
@@ -11962,7 +11959,7 @@
       <c r="DV15" s="13"/>
       <c r="DW15" s="13"/>
     </row>
-    <row r="16" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>116</v>
       </c>
@@ -12090,7 +12087,7 @@
       <c r="DV16" s="13"/>
       <c r="DW16" s="13"/>
     </row>
-    <row r="17" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>117</v>
       </c>
@@ -12218,7 +12215,7 @@
       <c r="DV17" s="13"/>
       <c r="DW17" s="13"/>
     </row>
-    <row r="18" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>118</v>
       </c>
@@ -12346,7 +12343,7 @@
       <c r="DV18" s="13"/>
       <c r="DW18" s="13"/>
     </row>
-    <row r="19" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>119</v>
       </c>
@@ -12474,7 +12471,7 @@
       <c r="DV19" s="13"/>
       <c r="DW19" s="13"/>
     </row>
-    <row r="20" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>120</v>
       </c>
@@ -12602,7 +12599,7 @@
       <c r="DV20" s="13"/>
       <c r="DW20" s="13"/>
     </row>
-    <row r="21" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>121</v>
       </c>
@@ -12730,7 +12727,7 @@
       <c r="DV21" s="13"/>
       <c r="DW21" s="13"/>
     </row>
-    <row r="22" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>122</v>
       </c>
@@ -12960,7 +12957,7 @@
       </c>
       <c r="DW22" s="13"/>
     </row>
-    <row r="23" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>132</v>
       </c>
@@ -13240,7 +13237,7 @@
       </c>
       <c r="DW23" s="13"/>
     </row>
-    <row r="24" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>139</v>
       </c>
@@ -13442,7 +13439,7 @@
       </c>
       <c r="DW24" s="13"/>
     </row>
-    <row r="25" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>144</v>
       </c>
@@ -13582,7 +13579,7 @@
       <c r="DV25" s="13"/>
       <c r="DW25" s="13"/>
     </row>
-    <row r="26" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>148</v>
       </c>
@@ -13722,7 +13719,7 @@
       <c r="DV26" s="13"/>
       <c r="DW26" s="13"/>
     </row>
-    <row r="27" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>149</v>
       </c>
@@ -13862,7 +13859,7 @@
       <c r="DV27" s="13"/>
       <c r="DW27" s="13"/>
     </row>
-    <row r="28" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>150</v>
       </c>
@@ -14002,7 +13999,7 @@
       <c r="DV28" s="13"/>
       <c r="DW28" s="13"/>
     </row>
-    <row r="29" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>151</v>
       </c>
@@ -14142,7 +14139,7 @@
       <c r="DV29" s="13"/>
       <c r="DW29" s="13"/>
     </row>
-    <row r="30" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>152</v>
       </c>
@@ -14282,7 +14279,7 @@
       <c r="DV30" s="13"/>
       <c r="DW30" s="13"/>
     </row>
-    <row r="31" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>153</v>
       </c>
@@ -14512,7 +14509,7 @@
       </c>
       <c r="DW31" s="13"/>
     </row>
-    <row r="32" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>154</v>
       </c>
@@ -14792,7 +14789,7 @@
       </c>
       <c r="DW32" s="13"/>
     </row>
-    <row r="33" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>155</v>
       </c>
@@ -14994,7 +14991,7 @@
       </c>
       <c r="DW33" s="13"/>
     </row>
-    <row r="34" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>156</v>
       </c>
@@ -15134,7 +15131,7 @@
       <c r="DV34" s="13"/>
       <c r="DW34" s="13"/>
     </row>
-    <row r="35" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>157</v>
       </c>
@@ -15274,7 +15271,7 @@
       <c r="DV35" s="13"/>
       <c r="DW35" s="13"/>
     </row>
-    <row r="36" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>161</v>
       </c>
@@ -15414,7 +15411,7 @@
       <c r="DV36" s="13"/>
       <c r="DW36" s="13"/>
     </row>
-    <row r="37" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>162</v>
       </c>
@@ -15542,7 +15539,7 @@
       <c r="DV37" s="13"/>
       <c r="DW37" s="13"/>
     </row>
-    <row r="38" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>163</v>
       </c>
@@ -15670,7 +15667,7 @@
       <c r="DV38" s="13"/>
       <c r="DW38" s="13"/>
     </row>
-    <row r="39" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I39" s="10" t="s">
         <v>164</v>
       </c>
@@ -15890,8 +15887,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AN41" s="15"/>
       <c r="AO41" s="15"/>
       <c r="AP41" s="15"/>
